--- a/editor/examples/yitiantulong/scenarios.xlsx
+++ b/editor/examples/yitiantulong/scenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/drama_configs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/yitiantulong/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F94C526-EEE5-D742-849B-CE9FF5AF9569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ADF2C0-3401-134A-8994-6773AE7BC04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-11800" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-11800" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="welcome" sheetId="2" r:id="rId1"/>
@@ -108,7 +108,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你和赵敏正在草原上放羊，辽阔的草原上只有你们二人</t>
+    <t>你是张无忌，你正和赵敏在草原上放羊，辽阔的草原上只有你们二人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973AF817-9C21-984B-9130-7A0010C51C77}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
